--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_45.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/60/Output_8_45.xlsx
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>77164.05682598258</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>77164.05682598258</v>
+        <v>5151068.34050911</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>958554910.3952433</v>
+        <v>35390308.41405139</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10178.95504431853</v>
+        <v>837724.3048744391</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19581.01519700298</v>
+        <v>1539546.554994458</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>28974.31096863244</v>
+        <v>2241368.805114476</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>38567.66479583764</v>
+        <v>2942487.631583706</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>48160.96557512507</v>
+        <v>3643606.458052935</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>57754.31940233025</v>
+        <v>4344725.284522163</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>67347.62018161766</v>
+        <v>5045844.110991387</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>76940.97105850512</v>
+        <v>5746962.937460612</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>86534.32488571033</v>
+        <v>6448081.763929836</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>96127.62566499779</v>
+        <v>7149200.59039906</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105720.979492203</v>
+        <v>7850319.416868286</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>115314.3333194082</v>
+        <v>8551438.243337516</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>124907.6841962956</v>
+        <v>9252557.069806749</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>134501.0380235008</v>
+        <v>9953675.896275982</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>144094.3918507061</v>
+        <v>10654794.72274522</v>
       </c>
     </row>
   </sheetData>
